--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r104_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r104_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -535,10 +547,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -582,28 +594,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -628,28 +640,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -911,10 +923,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -958,28 +970,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1004,28 +1016,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1229,10 +1241,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="K38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1276,28 +1288,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1322,28 +1334,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="2">
+      <c r="I42" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1605,10 +1617,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="J51" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="K51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1652,28 +1664,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
+      <c r="A53" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="2">
+      <c r="C53" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D53" t="s" s="2">
+      <c r="D53" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1698,28 +1710,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="2">
+      <c r="I55" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1923,10 +1935,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="J62" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K62" s="2" t="s">
+      <c r="K62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1970,28 +1982,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2">
+      <c r="A64" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2016,28 +2028,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="2">
+      <c r="I66" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2212,10 +2224,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
+      <c r="J72" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K72" s="2" t="s">
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2259,28 +2271,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2305,28 +2317,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2588,10 +2600,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
+      <c r="J85" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K85" s="2" t="s">
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2635,28 +2647,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
+      <c r="C87" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D87" t="s" s="2">
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2681,28 +2693,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2906,10 +2918,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="J96" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K96" s="2" t="s">
+      <c r="K96" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2953,28 +2965,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2999,28 +3011,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3224,10 +3236,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="2" t="s">
+      <c r="J107" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K107" s="2" t="s">
+      <c r="K107" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3271,28 +3283,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="2">
+      <c r="A109" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3317,28 +3329,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="2">
+      <c r="I111" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3600,10 +3612,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
+      <c r="J120" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K120" s="2" t="s">
+      <c r="K120" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3647,28 +3659,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3693,28 +3705,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3918,10 +3930,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
+      <c r="J131" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K131" s="2" t="s">
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3965,28 +3977,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4011,28 +4023,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4236,10 +4248,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
+      <c r="J142" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K142" s="2" t="s">
+      <c r="K142" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4283,28 +4295,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4329,28 +4341,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4641,10 +4653,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
+      <c r="J156" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="2" t="s">
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4688,28 +4700,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4734,28 +4746,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4930,10 +4942,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
+      <c r="J166" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K166" s="2" t="s">
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4977,28 +4989,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5023,28 +5035,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5190,10 +5202,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
+      <c r="J175" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K175" s="2" t="s">
+      <c r="K175" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5237,28 +5249,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5283,28 +5295,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5363,10 +5375,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="2" t="s">
+      <c r="J181" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K181" s="2" t="s">
+      <c r="K181" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
